--- a/bill of materials/BOM.xlsx
+++ b/bill of materials/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hogent-my.sharepoint.com/personal/tiara_defoer_student_hogent_be/Documents/Syntheseproject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="60" documentId="8_{302AC1CA-A1D6-4F34-9DC7-D17DC906379E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81C0ACB8-813D-4FEE-906F-9420BB2B164F}"/>
+  <xr:revisionPtr revIDLastSave="62" documentId="8_{302AC1CA-A1D6-4F34-9DC7-D17DC906379E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F581F77-E584-4FCC-8030-F53F26969E46}"/>
   <bookViews>
     <workbookView xWindow="2364" yWindow="1212" windowWidth="17280" windowHeight="9420" xr2:uid="{2760D0FC-9C6E-4DE4-BF33-CD5646CF3A7B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Batterij</t>
   </si>
@@ -147,6 +147,12 @@
   </si>
   <si>
     <t>20 x male-male</t>
+  </si>
+  <si>
+    <t>Schakelaar</t>
+  </si>
+  <si>
+    <t>Aan/uit tuimelschakelaar</t>
   </si>
 </sst>
 </file>
@@ -517,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB1E84ED-0A99-4328-A487-5FEA10FB1511}">
-  <dimension ref="B3:E17"/>
+  <dimension ref="B3:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -697,9 +703,17 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
